--- a/Team-Data/2014-15/3-11-2014-15.xlsx
+++ b/Team-Data/2014-15/3-11-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,70 +733,70 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.781</v>
+        <v>0.794</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
         <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
         <v>17.8</v>
@@ -741,13 +808,13 @@
         <v>102.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
@@ -771,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -801,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J3" t="n">
         <v>88.3</v>
@@ -881,10 +948,10 @@
         <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
         <v>0.755</v>
@@ -893,13 +960,13 @@
         <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
         <v>13.9</v>
@@ -914,28 +981,28 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>10</v>
@@ -971,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,19 +1053,19 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
@@ -1063,52 +1130,52 @@
         <v>0.327</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
         <v>31.9</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AA4" t="n">
         <v>20</v>
       </c>
-      <c r="AA4" t="n">
-        <v>20.1</v>
-      </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC4" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1120,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1138,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1153,16 +1220,16 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1174,16 +1241,16 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.427</v>
@@ -1251,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
@@ -1263,7 +1330,7 @@
         <v>44.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1272,43 +1339,43 @@
         <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
         <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
         <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="n">
         <v>18</v>
       </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
       </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1326,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>23</v>
@@ -1350,13 +1417,13 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -1394,19 +1461,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
         <v>36.6</v>
@@ -1421,28 +1488,28 @@
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U6" t="n">
         <v>21.6</v>
@@ -1454,28 +1521,28 @@
         <v>6.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1520,10 +1587,10 @@
         <v>6</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
         <v>15</v>
@@ -1532,16 +1599,16 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -1657,19 +1724,19 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1687,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>8</v>
@@ -1699,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1708,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1717,10 +1784,10 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.631</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.459</v>
@@ -1785,40 +1852,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N8" t="n">
         <v>0.349</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1833,19 +1900,19 @@
         <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1857,10 +1924,10 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
         <v>8</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1875,16 +1942,16 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.369</v>
+        <v>0.359</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,28 +2025,28 @@
         <v>37.2</v>
       </c>
       <c r="J9" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O9" t="n">
         <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
@@ -1991,46 +2058,46 @@
         <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2051,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2063,25 +2130,25 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="N10" t="n">
         <v>0.335</v>
       </c>
       <c r="O10" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R10" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
@@ -2179,7 +2246,7 @@
         <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
         <v>4.5</v>
@@ -2188,37 +2255,37 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB10" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2227,16 +2294,16 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2257,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,25 +2389,25 @@
         <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.477</v>
       </c>
       <c r="L11" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.768</v>
@@ -2352,16 +2419,16 @@
         <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>6.1</v>
@@ -2370,19 +2437,19 @@
         <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>109.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP11" t="n">
         <v>24</v>
       </c>
-      <c r="AP11" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -2489,22 +2556,22 @@
         <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.5</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,37 +2580,37 @@
         <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
@@ -2552,28 +2619,28 @@
         <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
@@ -2582,7 +2649,7 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2600,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2791,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,28 +2935,28 @@
         <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2898,7 +2965,7 @@
         <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U14" t="n">
         <v>24.4</v>
@@ -2916,22 +2983,22 @@
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2961,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2994,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.274</v>
+        <v>0.27</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P15" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3098,19 +3165,19 @@
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3149,16 +3216,16 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT15" t="n">
         <v>12</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3170,19 +3237,19 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.703</v>
+        <v>0.714</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,7 +3299,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.459</v>
@@ -3244,16 +3311,16 @@
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O16" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
@@ -3268,7 +3335,7 @@
         <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
@@ -3283,16 +3350,16 @@
         <v>18.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,16 +3371,16 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3325,25 +3392,25 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3364,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>35</v>
       </c>
       <c r="G17" t="n">
-        <v>0.453</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
@@ -3414,7 +3481,7 @@
         <v>34.7</v>
       </c>
       <c r="J17" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.456</v>
@@ -3426,19 +3493,19 @@
         <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
         <v>29.7</v>
@@ -3447,43 +3514,43 @@
         <v>38.6</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>4.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3510,16 +3577,16 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,19 +3595,19 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
         <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.531</v>
+        <v>0.524</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3608,31 +3675,31 @@
         <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
         <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
         <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V18" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
         <v>9.6</v>
@@ -3644,7 +3711,7 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
@@ -3653,10 +3720,10 @@
         <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3674,13 +3741,13 @@
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>5</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3713,19 +3780,19 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,37 +3845,37 @@
         <v>36.6</v>
       </c>
       <c r="J19" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K19" t="n">
         <v>0.434</v>
       </c>
       <c r="L19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P19" t="n">
         <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
@@ -3823,10 +3890,10 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>21.7</v>
@@ -3835,10 +3902,10 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3853,10 +3920,10 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,19 +3944,19 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
         <v>22</v>
@@ -3907,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.547</v>
+        <v>0.554</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,37 +4039,37 @@
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,61 +4078,61 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
         <v>8</v>
       </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4226,7 +4293,7 @@
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4256,7 +4323,7 @@
         <v>18</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4268,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
         <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0.547</v>
+        <v>0.556</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,73 +4391,73 @@
         <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K22" t="n">
         <v>0.445</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="O22" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P22" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R22" t="n">
         <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="U22" t="n">
         <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -4402,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4414,10 +4481,10 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4429,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4438,22 +4505,22 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -4512,31 +4579,31 @@
         <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4545,31 +4612,31 @@
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4584,19 +4651,19 @@
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,28 +4678,28 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
         <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
         <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="J24" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="L24" t="n">
         <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="O24" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4733,22 +4800,22 @@
         <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4775,13 +4842,13 @@
         <v>13</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4790,16 +4857,16 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
         <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.515</v>
+        <v>0.508</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J25" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O25" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.774</v>
@@ -4903,7 +4970,7 @@
         <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4921,16 +4988,16 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB25" t="n">
         <v>104.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4951,28 +5018,28 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="n">
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4981,25 +5048,25 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
         <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.677</v>
+        <v>0.672</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.444</v>
@@ -5061,16 +5128,16 @@
         <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O26" t="n">
         <v>16.1</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q26" t="n">
         <v>0.801</v>
@@ -5079,25 +5146,25 @@
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
         <v>22</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
         <v>18.6</v>
@@ -5106,31 +5173,31 @@
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="AC26" t="n">
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>25</v>
@@ -5154,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
         <v>41</v>
       </c>
       <c r="G27" t="n">
-        <v>0.349</v>
+        <v>0.339</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,7 +5301,7 @@
         <v>36.3</v>
       </c>
       <c r="J27" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.451</v>
@@ -5246,7 +5313,7 @@
         <v>16</v>
       </c>
       <c r="N27" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O27" t="n">
         <v>22.8</v>
@@ -5255,22 +5322,22 @@
         <v>29.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5279,7 +5346,7 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
@@ -5288,25 +5355,25 @@
         <v>24.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.2</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5357,16 +5424,16 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.629</v>
+        <v>0.635</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,43 +5483,43 @@
         <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
         <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>23.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
@@ -5476,16 +5543,16 @@
         <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5506,46 +5573,46 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5694,19 +5761,19 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>22</v>
@@ -5715,19 +5782,19 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>20</v>
@@ -5876,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
         <v>25</v>
@@ -5885,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,13 +5964,13 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6058,16 +6125,16 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>9</v>
@@ -6088,10 +6155,10 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-11-2014-15</t>
+          <t>2015-03-11</t>
         </is>
       </c>
     </row>
